--- a/简化字批评.xlsx
+++ b/简化字批评.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\Rust Projects\better-simp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF3C786-3695-4B49-A35B-B666A7BDDCFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B09EF1FE-B231-40A9-9BD4-68AA3F9CF56C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41849,9 +41849,6 @@
   </si>
   <si>
     <t>⿰⿱䒑隹欠</t>
-  </si>
-  <si>
-    <t>⿰⿱䒑隹欠</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -41882,6 +41879,10 @@
       </rPr>
       <t>」，即羊角，故可再简做「⿱䒑隹」。更激进的做法是用「关」代「雚」。另外，若把「又」当作义符（不取手的意思，用「又」自己的意思），则可以把「覌」理解为会意字：又见即观。</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>⿰木⿱䒑隹</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -42677,8 +42678,8 @@
   </sheetPr>
   <dimension ref="A1:G370"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F96" sqref="F96"/>
+    <sheetView tabSelected="1" topLeftCell="A202" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D222" sqref="D222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -43855,7 +43856,7 @@
         <v>2455</v>
       </c>
       <c r="F88" s="58" t="s">
-        <v>2512</v>
+        <v>2511</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="17.25" x14ac:dyDescent="0.35">
@@ -44032,7 +44033,7 @@
         <v>210</v>
       </c>
       <c r="C101" s="28" t="s">
-        <v>2510</v>
+        <v>2509</v>
       </c>
       <c r="D101" s="62" t="s">
         <v>2454</v>
@@ -45552,7 +45553,7 @@
         <v>446</v>
       </c>
       <c r="C218" s="28" t="s">
-        <v>2509</v>
+        <v>2512</v>
       </c>
       <c r="D218" s="62" t="s">
         <v>445</v>
@@ -45572,7 +45573,7 @@
         <v>448</v>
       </c>
       <c r="C219" s="28" t="s">
-        <v>2511</v>
+        <v>2510</v>
       </c>
       <c r="D219" s="62" t="s">
         <v>447</v>
